--- a/doc/anexos/Capítulo 4. Presupuesto.xlsx
+++ b/doc/anexos/Capítulo 4. Presupuesto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xamel\Dropbox\Uniovi\TFG\ElFavorDeLasGuerreras\doc\capitulos\Anexos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uniovi\TFG\ElFavorDeLasGuerreras\doc\anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401307B1-7F50-4F6B-8841-71D6B21B7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35D9E3-A6B3-4FB5-AD7A-C9C6BE211158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificacion_Inicial" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>Nombre de la tarea</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t xml:space="preserve">   1.8</t>
+  </si>
+  <si>
+    <t>Gastos de reparación de hardware</t>
+  </si>
+  <si>
+    <t>Alquiler de software</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,7 +812,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -872,10 +877,10 @@
     <xf numFmtId="8" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3219,7 +3224,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="65" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="64" customWidth="1"/>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="6" customWidth="1"/>
@@ -3272,7 +3277,7 @@
       <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3297,7 +3302,7 @@
       <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3323,7 +3328,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3350,7 +3355,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3377,7 +3382,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3398,13 +3403,13 @@
         <f t="shared" si="0"/>
         <v>44250</v>
       </c>
-      <c r="G7" s="75" t="str">
+      <c r="G7" s="74" t="str">
         <f>'Coste de personal'!A3</f>
         <v>Analista de sistemas</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3425,13 +3430,13 @@
         <f t="shared" si="0"/>
         <v>44270</v>
       </c>
-      <c r="G8" s="75" t="str">
+      <c r="G8" s="74" t="str">
         <f>'Coste de personal'!A3</f>
         <v>Analista de sistemas</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3452,13 +3457,13 @@
         <f t="shared" si="0"/>
         <v>44278</v>
       </c>
-      <c r="G9" s="75" t="str">
+      <c r="G9" s="74" t="str">
         <f>'Coste de personal'!A3</f>
         <v>Analista de sistemas</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3479,13 +3484,13 @@
         <f t="shared" si="0"/>
         <v>44282</v>
       </c>
-      <c r="G10" s="75" t="str">
+      <c r="G10" s="74" t="str">
         <f>'Coste de personal'!A2</f>
         <v>Arquitecto software</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3512,7 +3517,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+      <c r="A12" s="67">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3537,7 +3542,7 @@
       <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3564,7 +3569,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3591,7 +3596,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3618,7 +3623,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3643,7 +3648,7 @@
       <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3670,7 +3675,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3697,7 +3702,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3724,7 +3729,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="70" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3751,7 +3756,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3778,7 +3783,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72">
+      <c r="A22" s="71">
         <v>4</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -3803,7 +3808,7 @@
       <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="72" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3830,7 +3835,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="72" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3857,7 +3862,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4121,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CE8C43-6D0A-4601-A1B0-A769CFC83B6E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,30 +4183,61 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D4" s="31">
         <f>C4*B4</f>
-        <v>80</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
+        <v>40</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" ref="D5:D6" si="0">C5*B5</f>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31">
+        <v>150</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32">
-        <f>SUM(D2:D4)</f>
-        <v>480</v>
+      <c r="B8" s="32">
+        <f>SUM(D2:D6)</f>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4209,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D725C-4884-4A2C-9459-00B6F79789CA}">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4226,595 +4262,595 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="75" t="str">
         <f>Planificacion_Inicial!B2</f>
         <v>Proyecto Completo</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="76">
         <f>Planificacion_Inicial!C2</f>
         <v>300</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81">
         <f>SUM(G4,G13,G17,G23)</f>
         <v>6122.2999999999984</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="str">
+      <c r="A4" s="75" t="str">
         <f>Planificacion_Inicial!B3</f>
         <v>Análisis y Diseño</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="76">
         <f>Planificacion_Inicial!C3</f>
         <v>135</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82">
+      <c r="D4" s="82"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81">
         <f>SUM(F5:F12)</f>
         <v>3361.0499999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="str">
+      <c r="A5" s="78" t="str">
         <f>Planificacion_Inicial!B4</f>
         <v>Definición de Objetivos</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="83">
         <f>Planificacion_Inicial!C4</f>
         <v>5</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="83" t="str">
+      <c r="D5" s="82" t="str">
         <f>Planificacion_Inicial!G4</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>118.14999999999999</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="78" t="str">
         <f>Planificacion_Inicial!B5</f>
         <v>Definición de Requisitos</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="83">
         <f>Planificacion_Inicial!C5</f>
         <v>10</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="83" t="str">
+      <c r="D6" s="82" t="str">
         <f>Planificacion_Inicial!G5</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>236.29999999999998</v>
       </c>
-      <c r="G6" s="82"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="str">
+      <c r="A7" s="78" t="str">
         <f>Planificacion_Inicial!B6</f>
         <v>Presupuesto</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="83">
         <f>Planificacion_Inicial!C6</f>
         <v>5</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="83" t="str">
+      <c r="D7" s="82" t="str">
         <f>Planificacion_Inicial!G6</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>118.14999999999999</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="str">
+      <c r="A8" s="78" t="str">
         <f>Planificacion_Inicial!B7</f>
         <v>Aprender uso de GUI en Python</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <f>Planificacion_Inicial!C7</f>
         <v>20</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="83" t="str">
+      <c r="D8" s="82" t="str">
         <f>Planificacion_Inicial!G7</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>472.59999999999997</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="str">
+      <c r="A9" s="78" t="str">
         <f>Planificacion_Inicial!B8</f>
         <v>Aprender sobre el uso de redes neuronales</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <f>Planificacion_Inicial!C8</f>
         <v>50</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="83" t="str">
+      <c r="D9" s="82" t="str">
         <f>Planificacion_Inicial!G8</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>1181.5</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="str">
+      <c r="A10" s="78" t="str">
         <f>Planificacion_Inicial!B9</f>
         <v>Redes neuronales aplicadas a juegos</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <f>Planificacion_Inicial!C9</f>
         <v>20</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="83" t="str">
+      <c r="D10" s="82" t="str">
         <f>Planificacion_Inicial!G9</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <f>'Coste de personal'!$M$3</f>
         <v>23.63</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>472.59999999999997</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="str">
+      <c r="A11" s="78" t="str">
         <f>Planificacion_Inicial!B10</f>
         <v>Diseño de Interfaces</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <f>Planificacion_Inicial!C10</f>
         <v>10</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="83" t="str">
+      <c r="D11" s="82" t="str">
         <f>Planificacion_Inicial!G10</f>
         <v>Arquitecto software</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <f>'Coste de personal'!M2</f>
         <v>30.47</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>304.7</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="str">
+      <c r="A12" s="78" t="str">
         <f>Planificacion_Inicial!B11</f>
         <v>Diseño de Clases</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <f>Planificacion_Inicial!C11</f>
         <v>15</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="83" t="str">
+      <c r="D12" s="82" t="str">
         <f>Planificacion_Inicial!G11</f>
         <v>Arquitecto software</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="80">
         <f>'Coste de personal'!M2</f>
         <v>30.47</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>457.04999999999995</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="str">
+      <c r="A13" s="75" t="str">
         <f>Planificacion_Inicial!B12</f>
         <v>Implementación</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="76">
         <f>Planificacion_Inicial!C12</f>
         <v>85</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82">
+      <c r="D13" s="82"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81">
         <f>SUM(F14:F16)</f>
         <v>1129.6499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="str">
+      <c r="A14" s="78" t="str">
         <f>Planificacion_Inicial!B13</f>
         <v>Módulo de Controlador</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <f>Planificacion_Inicial!C13</f>
         <v>25</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="83" t="str">
+      <c r="D14" s="82" t="str">
         <f>Planificacion_Inicial!G13</f>
         <v>Desarrollador</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="80">
         <f>'Coste de personal'!M4</f>
         <v>13.29</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>332.25</v>
       </c>
-      <c r="G14" s="82"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="str">
+      <c r="A15" s="78" t="str">
         <f>Planificacion_Inicial!B14</f>
         <v>Módulo de Interfaz Gráfica</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <f>Planificacion_Inicial!C14</f>
         <v>20</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="83" t="str">
+      <c r="D15" s="82" t="str">
         <f>Planificacion_Inicial!G14</f>
         <v>Desarrollador</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="80">
         <f>'Coste de personal'!M4</f>
         <v>13.29</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>265.79999999999995</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="str">
+      <c r="A16" s="78" t="str">
         <f>Planificacion_Inicial!B15</f>
         <v>Módulo de Red Neuronal</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <f>Planificacion_Inicial!C15</f>
         <v>40</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="83" t="str">
+      <c r="D16" s="82" t="str">
         <f>Planificacion_Inicial!G15</f>
         <v>Desarrollador</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="80">
         <f>'Coste de personal'!M4</f>
         <v>13.29</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>531.59999999999991</v>
       </c>
-      <c r="G16" s="82"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="str">
+      <c r="A17" s="75" t="str">
         <f>Planificacion_Inicial!B16</f>
         <v>Pruebas</v>
       </c>
-      <c r="B17" s="77">
+      <c r="B17" s="76">
         <f>Planificacion_Inicial!C16</f>
         <v>40</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82">
+      <c r="D17" s="82"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81">
         <f>SUM(F18:F22)</f>
         <v>686.39999999999986</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="str">
+      <c r="A18" s="78" t="str">
         <f>Planificacion_Inicial!B17</f>
         <v>Diseño de Pruebas</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <f>Planificacion_Inicial!C17</f>
         <v>5</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="83" t="str">
+      <c r="D18" s="82" t="str">
         <f>Planificacion_Inicial!G17</f>
         <v>Tester</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <f>'Coste de personal'!M5</f>
         <v>17.16</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>85.8</v>
       </c>
-      <c r="G18" s="82"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="str">
+      <c r="A19" s="78" t="str">
         <f>Planificacion_Inicial!B18</f>
         <v>Pruebas Unitarias</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <f>Planificacion_Inicial!C18</f>
         <v>15</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="83" t="str">
+      <c r="D19" s="82" t="str">
         <f>Planificacion_Inicial!G18</f>
         <v>Tester</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="80">
         <f>'Coste de personal'!M5</f>
         <v>17.16</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>257.39999999999998</v>
       </c>
-      <c r="G19" s="82"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="str">
+      <c r="A20" s="78" t="str">
         <f>Planificacion_Inicial!B19</f>
         <v>Pruebas de Integración</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <f>Planificacion_Inicial!C19</f>
         <v>10</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="83" t="str">
+      <c r="D20" s="82" t="str">
         <f>Planificacion_Inicial!G19</f>
         <v>Tester</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="80">
         <f>'Coste de personal'!M5</f>
         <v>17.16</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>171.6</v>
       </c>
-      <c r="G20" s="82"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="str">
+      <c r="A21" s="78" t="str">
         <f>Planificacion_Inicial!B20</f>
         <v>Pruebas de Usabilidad</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <f>Planificacion_Inicial!C20</f>
         <v>5</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="83" t="str">
+      <c r="D21" s="82" t="str">
         <f>Planificacion_Inicial!G20</f>
         <v>Tester</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="80">
         <f>'Coste de personal'!M5</f>
         <v>17.16</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>85.8</v>
       </c>
-      <c r="G21" s="82"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="str">
+      <c r="A22" s="78" t="str">
         <f>Planificacion_Inicial!B21</f>
         <v>Pruebas de Accesibilidad</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <f>Planificacion_Inicial!C21</f>
         <v>5</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="83" t="str">
+      <c r="D22" s="82" t="str">
         <f>Planificacion_Inicial!G21</f>
         <v>Tester</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="80">
         <f>'Coste de personal'!M5</f>
         <v>17.16</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>85.8</v>
       </c>
-      <c r="G22" s="82"/>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="str">
+      <c r="A23" s="75" t="str">
         <f>Planificacion_Inicial!B22</f>
         <v>Documentación</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <f>Planificacion_Inicial!C22</f>
         <v>40</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82">
+      <c r="D23" s="82"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81">
         <f>SUM(F24:F25)</f>
         <v>945.19999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="str">
+      <c r="A24" s="78" t="str">
         <f>Planificacion_Inicial!B23</f>
         <v>Elaboración de la Documentación</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <f>Planificacion_Inicial!C23</f>
         <v>30</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="83" t="str">
+      <c r="D24" s="82" t="str">
         <f>Planificacion_Inicial!G23</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="80">
         <f>'Coste de personal'!M3</f>
         <v>23.63</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>708.9</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="str">
+      <c r="A25" s="78" t="str">
         <f>Planificacion_Inicial!B24</f>
         <v>Revisión de la Documentación</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <f>Planificacion_Inicial!C24</f>
         <v>10</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="83" t="str">
+      <c r="D25" s="82" t="str">
         <f>Planificacion_Inicial!G24</f>
         <v>Analista de sistemas</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="80">
         <f>'Coste de personal'!M3</f>
         <v>23.63</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="80">
         <f>(Tabla7[[#This Row],[Coste por hora]]*Tabla7[[#This Row],[Cantidad]])</f>
         <v>236.29999999999998</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,7 +4869,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M12" sqref="L2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4843,8 +4879,8 @@
     <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="38.5546875" style="63" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="93" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" style="62" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="91" customWidth="1"/>
     <col min="13" max="13" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4864,13 +4900,13 @@
       <c r="I1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="73" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4879,46 +4915,46 @@
         <f>'Presupuesto inicial'!G3</f>
         <v>6122.2999999999984</v>
       </c>
-      <c r="E2" s="64" t="str">
+      <c r="E2" s="63" t="str">
         <f>(Planificacion_Inicial!B3)</f>
         <v>Análisis y Diseño</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="59">
         <f>SUM(F3:F10)</f>
-        <v>4464.8252321431482</v>
+        <v>4925.9725133936599</v>
       </c>
       <c r="I2" s="37">
-        <f>SUM(F3:F8,F22:F23)</f>
-        <v>4708.5205621253454</v>
+        <f>SUM(G21)</f>
+        <v>1385.2900788919196</v>
       </c>
       <c r="K2" s="35" t="str">
         <f>Tabla2[[#This Row],[Partida]]</f>
         <v>Análisis y Diseño</v>
       </c>
-      <c r="L2" s="92"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="36">
-        <f>SUM(L3:L4)</f>
-        <v>2403.2964276708826</v>
+        <f>G2+G2*$I$5</f>
+        <v>5825.323350669295</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="85" t="str">
         <f>(Planificacion_Inicial!B4)</f>
         <v>Definición de Objetivos</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="86">
         <f>'Presupuesto inicial'!F5+'Presupuesto inicial'!F5*$B$17</f>
-        <v>156.95068540417816</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="K3" s="74" t="str">
+        <v>173.16125986148995</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="K3" s="73" t="str">
         <f t="shared" ref="K3:K9" si="0">E9</f>
         <v>Diseño de Interfaces</v>
       </c>
-      <c r="L3" s="91">
-        <f>F9+F9*$I$5</f>
-        <v>961.31857106835309</v>
+      <c r="L3" s="89">
+        <f>M2*(F9/(F9+F10))</f>
+        <v>2330.1293402677179</v>
       </c>
       <c r="M3" s="36"/>
     </row>
@@ -4926,25 +4962,25 @@
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="60" t="str">
+      <c r="E4" s="85" t="str">
         <f>(Planificacion_Inicial!B5)</f>
         <v>Definición de Requisitos</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="86">
         <f>'Presupuesto inicial'!F6+'Presupuesto inicial'!F6*$B$17</f>
-        <v>313.90137080835632</v>
-      </c>
-      <c r="G4" s="61"/>
+        <v>346.32251972297991</v>
+      </c>
+      <c r="G4" s="86"/>
       <c r="I4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="74" t="str">
+      <c r="K4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Diseño de Clases</v>
       </c>
-      <c r="L4" s="91">
-        <f>F10+F10*$I$5</f>
-        <v>1441.9778566025298</v>
+      <c r="L4" s="89">
+        <f>M2*(F10/(F9+F10))</f>
+        <v>3495.1940104015771</v>
       </c>
       <c r="M4" s="36"/>
     </row>
@@ -4952,46 +4988,46 @@
       <c r="B5" s="55">
         <v>0</v>
       </c>
-      <c r="E5" s="90" t="str">
+      <c r="E5" s="92" t="str">
         <f>(Planificacion_Inicial!B6)</f>
         <v>Presupuesto</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="86">
         <f>'Presupuesto inicial'!F7+'Presupuesto inicial'!F7*$B$17</f>
-        <v>156.95068540417816</v>
-      </c>
-      <c r="G5" s="61"/>
+        <v>173.16125986148995</v>
+      </c>
+      <c r="G5" s="86"/>
       <c r="I5" s="38">
         <f>I2/(C26-B5-I2)</f>
-        <v>1.3750096981922579</v>
+        <v>0.18257325529736729</v>
       </c>
       <c r="K5" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Implementación</v>
       </c>
-      <c r="L5" s="91"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="36">
-        <f>SUM(L6:L8)</f>
-        <v>3564.0089393087137</v>
+        <f>G11+G11*$I$5</f>
+        <v>1957.8930759981458</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="90" t="str">
+      <c r="E6" s="92" t="str">
         <f>(Planificacion_Inicial!B7)</f>
         <v>Aprender uso de GUI en Python</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="86">
         <f>'Presupuesto inicial'!F8+'Presupuesto inicial'!F8*$B$17</f>
-        <v>627.80274161671264</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="K6" s="74" t="str">
+        <v>692.64503944595981</v>
+      </c>
+      <c r="G6" s="86"/>
+      <c r="K6" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Módulo de Controlador</v>
       </c>
-      <c r="L6" s="91">
-        <f>F12+F12*$I$5</f>
-        <v>1048.2379233260924</v>
+      <c r="L6" s="89">
+        <f>M5*(F12/(F12+F13+F14))</f>
+        <v>575.85090470533703</v>
       </c>
       <c r="M6" s="36"/>
     </row>
@@ -4999,22 +5035,22 @@
       <c r="B7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="90" t="str">
+      <c r="E7" s="92" t="str">
         <f>(Planificacion_Inicial!B8)</f>
         <v>Aprender sobre el uso de redes neuronales</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="86">
         <f>'Presupuesto inicial'!F9+'Presupuesto inicial'!F9*$B$17</f>
-        <v>1569.5068540417817</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="K7" s="74" t="str">
+        <v>1731.6125986148998</v>
+      </c>
+      <c r="G7" s="86"/>
+      <c r="K7" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Módulo de Interfaz Gráfica</v>
       </c>
-      <c r="L7" s="91">
-        <f>F13+F13*$I$5</f>
-        <v>838.59033866087384</v>
+      <c r="L7" s="89">
+        <f>M5*(F13/(F12+F13+F14))</f>
+        <v>460.6807237642696</v>
       </c>
       <c r="M7" s="36"/>
     </row>
@@ -5022,22 +5058,22 @@
       <c r="B8" s="34">
         <v>0.25</v>
       </c>
-      <c r="E8" s="60" t="str">
+      <c r="E8" s="85" t="str">
         <f>(Planificacion_Inicial!B9)</f>
         <v>Redes neuronales aplicadas a juegos</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="86">
         <f>'Presupuesto inicial'!F10+'Presupuesto inicial'!F10*$B$17</f>
-        <v>627.80274161671264</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="K8" s="74" t="str">
+        <v>692.64503944595981</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="K8" s="73" t="str">
         <f t="shared" si="0"/>
         <v>Módulo de Red Neuronal</v>
       </c>
-      <c r="L8" s="91">
-        <f>F14+F14*$I$5</f>
-        <v>1677.1806773217477</v>
+      <c r="L8" s="89">
+        <f>M5*(F14/(F12+F13+F14))</f>
+        <v>921.3614475285392</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -5048,17 +5084,17 @@
       </c>
       <c r="F9" s="59">
         <f>'Presupuesto inicial'!F11+'Presupuesto inicial'!F11*$B$17</f>
-        <v>404.76406130049162</v>
+        <v>446.56991857635205</v>
       </c>
       <c r="G9" s="59"/>
       <c r="K9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Pruebas</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="36">
-        <f>SUM(L10)</f>
-        <v>2165.5696330204055</v>
+        <f>G15+G15*$I$5</f>
+        <v>1189.6585733325608</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -5071,34 +5107,34 @@
       </c>
       <c r="F10" s="59">
         <f>'Presupuesto inicial'!F12+'Presupuesto inicial'!F12*$B$17</f>
-        <v>607.1460919507374</v>
+        <v>669.85487786452802</v>
       </c>
       <c r="G10" s="59"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="89">
         <f>G15+G15*$I$5</f>
-        <v>2165.5696330204055</v>
+        <v>1189.6585733325608</v>
       </c>
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="37">
-        <f>'Costes indirectos'!B6</f>
-        <v>480</v>
-      </c>
-      <c r="E11" s="64" t="str">
+        <f>'Costes indirectos'!B8</f>
+        <v>1320</v>
+      </c>
+      <c r="E11" s="63" t="str">
         <f>(Planificacion_Inicial!B12)</f>
         <v>Implementación</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="59">
         <f>SUM(F12:F14)</f>
-        <v>1500.6292151234011</v>
+        <v>1655.6209665893537</v>
       </c>
       <c r="K11" s="35"/>
-      <c r="L11" s="91"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5108,16 +5144,16 @@
       </c>
       <c r="F12" s="59">
         <f>'Presupuesto inicial'!F14+'Presupuesto inicial'!F14*$B$17</f>
-        <v>441.36153385982391</v>
+        <v>486.94734311451583</v>
       </c>
       <c r="G12" s="59"/>
       <c r="K12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="36">
         <f>SUM(M2,M5,M9)</f>
-        <v>8132.8750000000018</v>
+        <v>8972.8750000000018</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -5130,14 +5166,14 @@
       </c>
       <c r="F13" s="59">
         <f>'Presupuesto inicial'!F15+'Presupuesto inicial'!F15*$B$17</f>
-        <v>353.08922708785906</v>
+        <v>389.55787449161261</v>
       </c>
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37">
         <f>(B2*B8)+B11</f>
-        <v>2010.5749999999996</v>
+        <v>2850.5749999999998</v>
       </c>
       <c r="E14" s="58" t="str">
         <f>(Planificacion_Inicial!B15)</f>
@@ -5145,104 +5181,104 @@
       </c>
       <c r="F14" s="59">
         <f>'Presupuesto inicial'!F16+'Presupuesto inicial'!F16*$B$17</f>
-        <v>706.17845417571812</v>
+        <v>779.11574898322522</v>
       </c>
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="64" t="str">
+      <c r="E15" s="63" t="str">
         <f>(Planificacion_Inicial!B16)</f>
         <v>Pruebas</v>
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59">
         <f>SUM(F16:F20)</f>
-        <v>911.81506950002426</v>
+        <v>1005.9914411250675</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="86" t="str">
+      <c r="E16" s="85" t="str">
         <f>(Planificacion_Inicial!B17)</f>
         <v>Diseño de Pruebas</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="86">
         <f>'Presupuesto inicial'!F18+'Presupuesto inicial'!F18*$B$17</f>
-        <v>113.97688368750306</v>
-      </c>
-      <c r="G16" s="87"/>
+        <v>125.74893014063343</v>
+      </c>
+      <c r="G16" s="86"/>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="38">
         <f>B14/(B2-B5)</f>
-        <v>0.32840190777975597</v>
-      </c>
-      <c r="E17" s="86" t="str">
+        <v>0.46560524639432904</v>
+      </c>
+      <c r="E17" s="85" t="str">
         <f>(Planificacion_Inicial!B18)</f>
         <v>Pruebas Unitarias</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="86">
         <f>'Presupuesto inicial'!F19+'Presupuesto inicial'!F19*$B$17</f>
-        <v>341.93065106250913</v>
-      </c>
-      <c r="G17" s="87"/>
+        <v>377.24679042190024</v>
+      </c>
+      <c r="G17" s="86"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="86" t="str">
+      <c r="E18" s="85" t="str">
         <f>(Planificacion_Inicial!B19)</f>
         <v>Pruebas de Integración</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="86">
         <f>'Presupuesto inicial'!F20+'Presupuesto inicial'!F20*$B$17</f>
-        <v>227.95376737500612</v>
-      </c>
-      <c r="G18" s="87"/>
+        <v>251.49786028126687</v>
+      </c>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="86" t="str">
+      <c r="E19" s="85" t="str">
         <f>(Planificacion_Inicial!B20)</f>
         <v>Pruebas de Usabilidad</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="86">
         <f>'Presupuesto inicial'!F21+'Presupuesto inicial'!F21*$B$17</f>
-        <v>113.97688368750306</v>
-      </c>
-      <c r="G19" s="87"/>
+        <v>125.74893014063343</v>
+      </c>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="86" t="str">
+      <c r="E20" s="85" t="str">
         <f>(Planificacion_Inicial!B21)</f>
         <v>Pruebas de Accesibilidad</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="86">
         <f>'Presupuesto inicial'!F22+'Presupuesto inicial'!F22*$B$17</f>
-        <v>113.97688368750306</v>
-      </c>
-      <c r="G20" s="87"/>
+        <v>125.74893014063343</v>
+      </c>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="85" t="str">
+      <c r="E21" s="84" t="str">
         <f>(Planificacion_Inicial!B22)</f>
         <v>Documentación</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60">
         <f>SUM(F22:F23)</f>
-        <v>1255.6054832334253</v>
+        <v>1385.2900788919196</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="60" t="str">
+      <c r="E22" s="85" t="str">
         <f>(Planificacion_Inicial!B23)</f>
         <v>Elaboración de la Documentación</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="86">
         <f>'Presupuesto inicial'!F24+'Presupuesto inicial'!F24*$B$17</f>
-        <v>941.70411242506896</v>
-      </c>
-      <c r="G22" s="61"/>
+        <v>1038.9675591689397</v>
+      </c>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
@@ -5253,15 +5289,15 @@
         <v>6122.2999999999984</v>
       </c>
       <c r="D23" s="57"/>
-      <c r="E23" s="60" t="str">
+      <c r="E23" s="85" t="str">
         <f>(Planificacion_Inicial!B24)</f>
         <v>Revisión de la Documentación</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="86">
         <f>'Presupuesto inicial'!F25+'Presupuesto inicial'!F25*$B$17</f>
-        <v>313.90137080835632</v>
-      </c>
-      <c r="G23" s="61"/>
+        <v>346.32251972297991</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -5279,16 +5315,16 @@
       </c>
       <c r="C25" s="41">
         <f>B11</f>
-        <v>480</v>
+        <v>1320</v>
       </c>
       <c r="D25" s="57"/>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="89">
+      <c r="G25" s="88">
         <f>SUM(G21,G15,G11,G2)</f>
-        <v>8132.8749999999991</v>
+        <v>8972.875</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5297,7 +5333,7 @@
       </c>
       <c r="C26" s="42">
         <f>SUM(C23:C25)</f>
-        <v>8132.8749999999982</v>
+        <v>8972.8749999999982</v>
       </c>
       <c r="D26" s="57"/>
     </row>
@@ -5307,12 +5343,12 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="87" t="s">
         <v>82</v>
       </c>
     </row>
